--- a/BoM/Positional/nixie-bom.xlsx
+++ b/BoM/Positional/nixie-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="350">
   <si>
     <t>Row</t>
   </si>
@@ -152,7 +152,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Net-(BT1-+),GND</t>
+    <t>GND,Net-(BT1-+)</t>
   </si>
   <si>
     <t>Default</t>
@@ -227,7 +227,7 @@
     <t>6.6000</t>
   </si>
   <si>
-    <t>ROT_A,GND</t>
+    <t>GND,ROT_A</t>
   </si>
   <si>
     <t>4</t>
@@ -284,7 +284,7 @@
     <t>5.1000</t>
   </si>
   <si>
-    <t>HV,GND</t>
+    <t>GND,HV</t>
   </si>
   <si>
     <t>HV,Default</t>
@@ -527,7 +527,7 @@
     <t>13.5433</t>
   </si>
   <si>
-    <t>/D11,Net-(N1-PadA),/D15,/D13,/D19,unconnected-(N1-PadLHDP),unconnected-(N1-PadRHDP),/D18,/D16,/D14,/D17,/D110,/D12</t>
+    <t>/D15,Net-(N1-PadA),unconnected-(N1-PadLHDP),/D13,unconnected-(N1-PadRHDP),/D16,/D110,/D18,/D17,/D19,/D12,/D14,/D11</t>
   </si>
   <si>
     <t>14</t>
@@ -557,7 +557,7 @@
     <t>1.1074</t>
   </si>
   <si>
-    <t>/D121,Net-(N7-PadA)</t>
+    <t>Net-(N7-PadA),/D121</t>
   </si>
   <si>
     <t>HV</t>
@@ -596,7 +596,7 @@
     <t>1.5000</t>
   </si>
   <si>
-    <t>Net-(D1-A),GND,Net-(D1-K)</t>
+    <t>GND,Net-(D1-A),Net-(D1-K)</t>
   </si>
   <si>
     <t>16</t>
@@ -632,7 +632,7 @@
     <t>19.4100</t>
   </si>
   <si>
-    <t>,GND,Net-(D1-K),Net-(D2-A)</t>
+    <t>,Net-(D2-A),GND,Net-(D1-K)</t>
   </si>
   <si>
     <t>17</t>
@@ -644,7 +644,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R1 R2 R3 R4</t>
+    <t>R1</t>
   </si>
   <si>
     <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P7.62mm_Horizontal</t>
@@ -656,28 +656,37 @@
     <t>-90.0000</t>
   </si>
   <si>
-    <t>Net-(D1-A),GND</t>
+    <t>GND,Net-(D1-A)</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>R15 R17 R22</t>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>HV,Net-(D3-A2)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>R3 R15 R17 R22</t>
   </si>
   <si>
     <t>4.7k</t>
   </si>
   <si>
-    <t>154.9050</t>
-  </si>
-  <si>
-    <t>-70.3050</t>
-  </si>
-  <si>
-    <t>5V,SCL</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>112.1200</t>
+  </si>
+  <si>
+    <t>-84.8100</t>
+  </si>
+  <si>
+    <t>Net-(R3-Pad1),Net-(U2-Vfb)</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>R16 R18 R19 R20 R21 R23</t>
@@ -692,10 +701,10 @@
     <t>-75.6000</t>
   </si>
   <si>
-    <t>ROT_A,Net-(R16-Pad2)</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>Net-(R16-Pad2),ROT_A</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>R5 R6 R7 R8 R9 R10 R11 R12 R13 R14</t>
@@ -713,10 +722,25 @@
     <t>-105.8100</t>
   </si>
   <si>
-    <t>Net-(N1-PadA),HV</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>HV,Net-(N1-PadA)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>800k</t>
+  </si>
+  <si>
+    <t>-74.1200</t>
+  </si>
+  <si>
+    <t>Net-(U2-Vfb),HV</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>Trim-potentiometer</t>
@@ -746,10 +770,10 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>Net-(R3-Pad1),GND</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>GND,Net-(R3-Pad1)</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -776,10 +800,10 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>,GND,Net-(R21-Pad2),Net-(R16-Pad2),Net-(R18-Pad2)</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>,Net-(R18-Pad2),Net-(R16-Pad2),GND,Net-(R21-Pad2)</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>CMOS Hex Voltage-Level Shifter for TTL-to-CMOS or CMOS-to-CMOS, DIP-16/SOIC-16/TSSOP-16</t>
@@ -812,10 +836,10 @@
     <t>19.3800</t>
   </si>
   <si>
-    <t>DATA_IN,unconnected-(U1-Eout-Pad12),Net-(U1-Aout),GND,5V,CLK,OE,unconnected-(U1-Fout-Pad15),Vin,unconnected-(U1-Dout-Pad10),Net-(U1-Bout),Net-(U1-Cout)</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>CLK,unconnected-(U1-Fout-Pad15),Vin,Net-(U1-Cout),Net-(U1-Aout),unconnected-(U1-Dout-Pad10),DATA_IN,unconnected-(U1-Eout-Pad12),GND,Net-(U1-Bout),OE,5V</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>20MHz, 32kB Flash, 2kB SRAM, 1kB EEPROM, DIP-28</t>
@@ -845,10 +869,10 @@
     <t>34.6200</t>
   </si>
   <si>
-    <t>GND,5V,ROT_PSH,unconnected-(U6-PC0-Pad23),unconnected-(U6-PB5-Pad19),ROT_A,ROT_B,unconnected-(U6-XTAL1{slash}PB6-Pad9),SQW,SCL,OE,unconnected-(U6-PD3-Pad5),unconnected-(U6-PC2-Pad25),SDA,DATA_IN,unconnected-(U6-PC3-Pad26),unconnected-(U6-~{RESET}{slash}PC6-Pad1),CLK,unconnected-(U6-XTAL2{slash}PB7-Pad10),unconnected-(U6-PD1-Pad3),unconnected-(U6-PD0-Pad2),unconnected-(U6-PC4-Pad27),unconnected-(U6-AREF-Pad21),unconnected-(U6-PC1-Pad24),unconnected-(U6-PD4-Pad6),unconnected-(U6-PC5-Pad28)</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>unconnected-(U6-AREF-Pad21),unconnected-(U6-PC5-Pad28),unconnected-(U6-PC4-Pad27),unconnected-(U6-PD3-Pad5),unconnected-(U6-PD0-Pad2),ROT_A,GND,OE,SQW,unconnected-(U6-XTAL2{slash}PB7-Pad10),SDA,unconnected-(U6-PD4-Pad6),unconnected-(U6-PD1-Pad3),unconnected-(U6-PC0-Pad23),DATA_IN,SCL,unconnected-(U6-PC2-Pad25),ROT_PSH,CLK,unconnected-(U6-PC1-Pad24),unconnected-(U6-~{RESET}{slash}PC6-Pad1),unconnected-(U6-PB5-Pad19),unconnected-(U6-XTAL1{slash}PB6-Pad9),unconnected-(U6-PC3-Pad26),ROT_B,5V</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>±5ppm, I2C Real-Time Clock SOIC-8</t>
@@ -887,10 +911,10 @@
     <t>4.4100</t>
   </si>
   <si>
-    <t>SQW,GND,5V,SCL,Net-(BT1-+),unconnected-(U7-~{RST}-Pad4),SDA,unconnected-(U7-32KHZ-Pad1)</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>unconnected-(U7-~{RST}-Pad4),SDA,Net-(BT1-+),SCL,GND,unconnected-(U7-32KHZ-Pad1),5V,SQW</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>Serial to Parallel Logic Converters 220V 32Ch Open D Out</t>
@@ -923,10 +947,10 @@
     <t>13.6000</t>
   </si>
   <si>
-    <t>/D11,GND,/D125,/D18,Net-(U1-Cout),/D111,/D112,/D110,/D114,unconnected-(U3-NC_5-Pad34),/D121,/D15,/D13,/D119,Net-(U1-Bout),/D14,Net-(U3-DATA_OUT),unconnected-(U3-NC_2-Pad25),/D17,/D128,Net-(U1-Aout),unconnected-(U3-NC_1-Pad24),/D127,Vin,/D118,/D131,/D130,/D123,/D116,/D132,/D16,unconnected-(U3-NC_4-Pad27),/D129,/D12,/D122,/D115,/D19,/D120,/D113,/D124,/D117,unconnected-(U3-NC_3-Pad26),/D126</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>/D15,Net-(U1-Cout),Net-(U1-Aout),/D128,/D122,/D16,/D124,/D111,/D11,/D131,/D123,/D13,/D129,/D120,/D112,/D14,unconnected-(U3-NC_2-Pad25),/D115,Net-(U1-Bout),GND,/D132,/D116,unconnected-(U3-NC_5-Pad34),/D126,Vin,/D19,/D110,/D17,/D12,Net-(U3-DATA_OUT),/D117,unconnected-(U3-NC_4-Pad27),/D114,unconnected-(U3-NC_3-Pad26),/D121,/D118,/D18,/D113,/D127,/D125,/D119,/D130,unconnected-(U3-NC_1-Pad24)</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>Positive 1A 35V Linear Regulator, Fixed Output 5V, TO-220</t>
@@ -950,10 +974,10 @@
     <t>-76.9400</t>
   </si>
   <si>
-    <t>,GND,5V,Vin</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>,GND,Vin,5V</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>1.5A, step-up/down/inverting switching regulator, 3-40V Vin, 100kHz, DIP-8</t>
@@ -980,7 +1004,7 @@
     <t>-75.0000</t>
   </si>
   <si>
-    <t>Net-(U2-Vfb),Net-(D1-A),GND,Vin,Net-(U2-TC)</t>
+    <t>Vin,Net-(U2-TC),Net-(D1-A),Net-(U2-Vfb),GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -998,7 +1022,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>v1.0</t>
+    <t>v1.1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -1540,7 +1564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1578,7 +1602,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1605,55 +1629,55 @@
     </row>
     <row r="2" spans="1:25">
       <c r="C2" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F2" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="C4" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="C5" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1661,13 +1685,13 @@
     </row>
     <row r="6" spans="1:25">
       <c r="C6" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F6" s="3">
         <v>66</v>
@@ -3008,10 +3032,10 @@
         <v>210</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>32</v>
@@ -3023,7 +3047,7 @@
         <v>53</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>104</v>
@@ -3076,7 +3100,7 @@
         <v>214</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>209</v>
@@ -3085,10 +3109,10 @@
         <v>210</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>32</v>
@@ -3097,19 +3121,19 @@
         <v>33</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>39</v>
@@ -3130,15 +3154,15 @@
         <v>58</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>206</v>
@@ -3150,10 +3174,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>209</v>
@@ -3162,10 +3186,10 @@
         <v>210</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>32</v>
@@ -3174,19 +3198,19 @@
         <v>33</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>39</v>
@@ -3207,7 +3231,7 @@
         <v>58</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y27" s="6" t="s">
         <v>45</v>
@@ -3215,7 +3239,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>206</v>
@@ -3227,10 +3251,10 @@
         <v>28</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>209</v>
@@ -3239,10 +3263,10 @@
         <v>210</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>32</v>
@@ -3251,19 +3275,19 @@
         <v>33</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R28" s="11" t="s">
         <v>39</v>
@@ -3284,42 +3308,42 @@
         <v>58</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>32</v>
@@ -3331,13 +3355,13 @@
         <v>53</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>38</v>
@@ -3355,42 +3379,42 @@
         <v>41</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Y29" s="6" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="30" customHeight="1">
+    <row r="30" spans="1:25">
       <c r="A30" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>25</v>
@@ -3405,19 +3429,19 @@
         <v>33</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>35</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="R30" s="11" t="s">
         <v>39</v>
@@ -3432,42 +3456,42 @@
         <v>41</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="60" customHeight="1">
+    <row r="31" spans="1:25">
       <c r="A31" s="5" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>25</v>
@@ -3478,8 +3502,8 @@
       <c r="K31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>260</v>
+      <c r="L31" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>53</v>
@@ -3488,13 +3512,13 @@
         <v>35</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>39</v>
@@ -3509,42 +3533,42 @@
         <v>41</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Y31" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="150" customHeight="1">
+    <row r="32" spans="1:25" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>25</v>
@@ -3555,8 +3579,8 @@
       <c r="K32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>271</v>
+      <c r="L32" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="M32" s="11" t="s">
         <v>34</v>
@@ -3565,10 +3589,10 @@
         <v>35</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>77</v>
@@ -3586,42 +3610,42 @@
         <v>41</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="Y32" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="30" customHeight="1">
+    <row r="33" spans="1:25" ht="60" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>25</v>
@@ -3633,149 +3657,149 @@
         <v>32</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>35</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>287</v>
+        <v>106</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="135" customHeight="1">
+    <row r="34" spans="1:25" ht="150" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="R34" s="11" t="s">
         <v>39</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="T34" s="10" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="U34" s="11" t="s">
         <v>41</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>25</v>
@@ -3787,122 +3811,276 @@
         <v>32</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>39</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="Y35" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="30" customHeight="1">
+    <row r="36" spans="1:25" ht="135" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="M36" s="11" t="s">
         <v>53</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>39</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="U36" s="11" t="s">
         <v>41</v>
       </c>
       <c r="V36" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y36" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="30" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W36" s="11" t="s">
+      <c r="W38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X36" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y36" s="10" t="s">
+      <c r="X38" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y38" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3929,27 +4107,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
